--- a/experiment_data/model_tournament/model_tournament_mich1.xlsx
+++ b/experiment_data/model_tournament/model_tournament_mich1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\Desktop\Codenames Progetto PDE\Codenames-LLM\experiment_data\model_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2155A30F-B687-47C0-AE6B-01D1861AEA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4886B5-A900-4C57-9D22-328B225E4C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4608" yWindow="4608" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4956" yWindow="4956" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="27">
   <si>
     <t>red_model</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>gpt-o1-mini</t>
+  </si>
+  <si>
+    <t>gemini-1.5-flash-latest</t>
+  </si>
+  <si>
+    <t>gemini-1.5-pro-latest</t>
+  </si>
+  <si>
+    <t>llama-3.2-11b-vision</t>
   </si>
 </sst>
 </file>
@@ -147,11 +156,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -454,15 +464,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
@@ -1265,7 +1276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -1273,7 +1284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -1281,7 +1292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -1289,7 +1300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -1297,7 +1308,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -1305,7 +1316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -1313,7 +1324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -1321,7 +1332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -1329,7 +1340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -1337,7 +1348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -1345,13 +1356,786 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>21</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+    </row>
+    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+    </row>
+    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+    </row>
+    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+    </row>
+    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+    </row>
+    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+    </row>
+    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+    </row>
+    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+    </row>
+    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+    </row>
+    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+    </row>
+    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+    </row>
+    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+    </row>
+    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+    </row>
+    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+    </row>
+    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+    </row>
+    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+    </row>
+    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+    </row>
+    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+    </row>
+    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+    </row>
+    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+    </row>
+    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+    </row>
+    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+    </row>
+    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+    </row>
+    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+    </row>
+    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+    </row>
+    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+    </row>
+    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+    </row>
+    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+    </row>
+    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+    </row>
+    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+    </row>
+    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+    </row>
+    <row r="140" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+    </row>
+    <row r="141" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+    </row>
+    <row r="142" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+    </row>
+    <row r="143" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+    </row>
+    <row r="144" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+    </row>
+    <row r="145" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+    </row>
+    <row r="146" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+    </row>
+    <row r="147" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+    </row>
+    <row r="148" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+    </row>
+    <row r="149" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+    </row>
+    <row r="150" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+    </row>
+    <row r="152" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+    </row>
+    <row r="153" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+    </row>
+    <row r="154" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+    </row>
+    <row r="155" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+    </row>
+    <row r="157" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+    </row>
+    <row r="158" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+    </row>
+    <row r="159" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+    </row>
+    <row r="160" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+    </row>
+    <row r="161" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+    </row>
+    <row r="162" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/experiment_data/model_tournament/model_tournament_mich1.xlsx
+++ b/experiment_data/model_tournament/model_tournament_mich1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\Desktop\Codenames Progetto PDE\Codenames-LLM\experiment_data\model_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4886B5-A900-4C57-9D22-328B225E4C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E72864-58CB-4411-952B-8152F78CBAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4956" yWindow="4956" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="26">
   <si>
     <t>red_model</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>clue in board</t>
-  </si>
-  <si>
-    <t>gpt-o1-mini</t>
   </si>
   <si>
     <t>gemini-1.5-flash-latest</t>
@@ -156,12 +153,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -464,25 +460,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K162"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1070,7 +1054,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1081,7 +1065,7 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1089,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1097,7 +1081,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1105,7 +1089,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1113,7 +1097,7 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1121,23 +1105,23 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1145,7 +1129,7 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1153,7 +1137,7 @@
         <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1161,7 +1145,7 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1169,7 +1153,7 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1177,23 +1161,23 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1201,7 +1185,7 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1209,7 +1193,7 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1217,7 +1201,7 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1225,7 +1209,7 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1233,23 +1217,23 @@
         <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1257,7 +1241,7 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1265,7 +1249,7 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1273,869 +1257,352 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
         <v>20</v>
       </c>
-      <c r="B51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" t="s">
         <v>20</v>
       </c>
-      <c r="B52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="2" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" s="2" t="s">
+      <c r="B88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>20</v>
       </c>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-    </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-    </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-    </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-    </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-    </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-    </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-    </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-    </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-    </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-    </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-    </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-    </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-    </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-    </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-    </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-    </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-    </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-    </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-    </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-    </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-    </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-    </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-    </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-    </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-    </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-    </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-    </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-    </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-    </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-    </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-    </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-    </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-    </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-    </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-    </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-    </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-    </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-    </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-    </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-    </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-    </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-    </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-    </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-    </row>
-    <row r="140" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-    </row>
-    <row r="141" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-    </row>
-    <row r="142" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-    </row>
-    <row r="143" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-    </row>
-    <row r="144" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-    </row>
-    <row r="145" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-    </row>
-    <row r="146" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-    </row>
-    <row r="147" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-    </row>
-    <row r="148" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-    </row>
-    <row r="149" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-    </row>
-    <row r="150" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-    </row>
-    <row r="151" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-    </row>
-    <row r="152" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-    </row>
-    <row r="153" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-    </row>
-    <row r="154" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-    </row>
-    <row r="155" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-    </row>
-    <row r="156" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-    </row>
-    <row r="157" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-    </row>
-    <row r="158" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-    </row>
-    <row r="159" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-    </row>
-    <row r="160" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-    </row>
-    <row r="161" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-    </row>
-    <row r="162" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/experiment_data/model_tournament/model_tournament_mich1.xlsx
+++ b/experiment_data/model_tournament/model_tournament_mich1.xlsx
@@ -1322,15 +1322,37 @@
           <t>claude-3-5-sonnet-latest</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
       <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">

--- a/experiment_data/model_tournament/model_tournament_mich1.xlsx
+++ b/experiment_data/model_tournament/model_tournament_mich1.xlsx
@@ -1328,32 +1328,34 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2.166666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="E26" t="n">
-        <v>2.6</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>cards finished</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1458,16 +1460,40 @@
           <t>llama3.2-90b-vision</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2138,14 +2164,34 @@
           <t>claude-3-5-haiku-latest</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2</v>
+      </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
@@ -2322,16 +2368,40 @@
           <t>claude-3-5-sonnet-latest</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2344,16 +2414,40 @@
           <t>claude-3-5-haiku-latest</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>7</v>
+      </c>
+      <c r="J56" t="n">
+        <v>6</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2366,16 +2460,40 @@
           <t>llama3.2-11b-vision</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>6</v>
+      </c>
+      <c r="J57" t="n">
+        <v>5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">

--- a/experiment_data/model_tournament/model_tournament_mich1.xlsx
+++ b/experiment_data/model_tournament/model_tournament_mich1.xlsx
@@ -920,16 +920,40 @@
           <t>grok-beta</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -942,16 +966,40 @@
           <t>claude-3-5-sonnet-latest</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -964,16 +1012,40 @@
           <t>claude-3-5-haiku-latest</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1124,16 +1196,40 @@
           <t>gpt-4o-mini</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1146,16 +1242,40 @@
           <t>grok-beta</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1168,16 +1288,40 @@
           <t>claude-3-5-sonnet-latest</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1212,16 +1356,40 @@
           <t>llama3.2-11b-vision</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">

--- a/experiment_data/model_tournament/model_tournament_mich1.xlsx
+++ b/experiment_data/model_tournament/model_tournament_mich1.xlsx
@@ -1334,16 +1334,40 @@
           <t>claude-3-5-haiku-latest</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1402,16 +1426,40 @@
           <t>llama3.2-90b-vision</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1424,16 +1472,40 @@
           <t>gpt-4o</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1446,16 +1518,40 @@
           <t>gpt-4o-mini</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1468,16 +1564,40 @@
           <t>gpt-3.5-turbo</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1696,16 +1816,40 @@
           <t>gpt-4o-mini</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1924,16 +2068,40 @@
           <t>gpt-4o</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1946,16 +2114,40 @@
           <t>gpt-4o-mini</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>3</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2174,16 +2366,40 @@
           <t>gpt-4o</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2196,16 +2412,40 @@
           <t>gpt-4o-mini</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>5</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2424,16 +2664,40 @@
           <t>gpt-4o</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2446,16 +2710,40 @@
           <t>gpt-4o-mini</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>4</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">

--- a/experiment_data/model_tournament/model_tournament_mich1.xlsx
+++ b/experiment_data/model_tournament/model_tournament_mich1.xlsx
@@ -2962,16 +2962,40 @@
           <t>gemini-1.5-flash-latest</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>5</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">

--- a/experiment_data/model_tournament/model_tournament_mich1.xlsx
+++ b/experiment_data/model_tournament/model_tournament_mich1.xlsx
@@ -1794,16 +1794,40 @@
           <t>gpt-4o</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1862,16 +1886,40 @@
           <t>gpt-3.5-turbo</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2160,16 +2208,40 @@
           <t>gpt-3.5-turbo</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2458,16 +2530,40 @@
           <t>gpt-3.5-turbo</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2756,16 +2852,40 @@
           <t>gpt-3.5-turbo</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3008,16 +3128,40 @@
           <t>gemini-1.5-pro-latest</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>6</v>
+      </c>
+      <c r="J59" t="n">
+        <v>5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3030,16 +3174,40 @@
           <t>gemini-1.5-flash-latest</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3052,16 +3220,40 @@
           <t>gemini-1.5-pro-latest</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3074,16 +3266,40 @@
           <t>gemini-1.5-flash-latest</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>3</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3096,16 +3312,40 @@
           <t>gemini-1.5-pro-latest</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3118,16 +3358,40 @@
           <t>gemini-1.5-flash-latest</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>6</v>
+      </c>
+      <c r="J64" t="n">
+        <v>6</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3140,16 +3404,40 @@
           <t>gemini-1.5-pro-latest</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>5</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3162,16 +3450,40 @@
           <t>gemini-1.5-flash-latest</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>3</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3184,16 +3496,40 @@
           <t>gemini-1.5-pro-latest</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3206,16 +3542,40 @@
           <t>gemini-1.5-flash-latest</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>6</v>
+      </c>
+      <c r="J68" t="n">
+        <v>6</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3228,16 +3588,40 @@
           <t>gemini-1.5-pro-latest</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>3</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>3</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3250,16 +3634,40 @@
           <t>gpt-4o</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3272,16 +3680,40 @@
           <t>gpt-4o-mini</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3294,16 +3726,40 @@
           <t>gpt-3.5-turbo</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3316,16 +3772,40 @@
           <t>grok-beta</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3338,16 +3818,40 @@
           <t>claude-3-5-sonnet-latest</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3360,16 +3864,40 @@
           <t>claude-3-5-haiku-latest</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>2</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3382,16 +3910,40 @@
           <t>gemini-1.5-pro-latest</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3404,16 +3956,40 @@
           <t>llama3.2-11b-vision</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>4</v>
+      </c>
+      <c r="J77" t="n">
+        <v>4</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3426,16 +4002,40 @@
           <t>llama3.2-90b-vision</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3448,16 +4048,40 @@
           <t>gpt-4o</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>5</v>
+      </c>
+      <c r="J79" t="n">
+        <v>5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3470,16 +4094,40 @@
           <t>gpt-4o-mini</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>3</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3492,16 +4140,40 @@
           <t>gpt-3.5-turbo</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>6</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3514,16 +4186,40 @@
           <t>grok-beta</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3536,16 +4232,40 @@
           <t>claude-3-5-sonnet-latest</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>4</v>
+      </c>
+      <c r="J83" t="n">
+        <v>4</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3558,16 +4278,40 @@
           <t>claude-3-5-haiku-latest</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>5</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3580,16 +4324,40 @@
           <t>gemini-1.5-flash-latest</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>6</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3602,16 +4370,40 @@
           <t>llama3.2-11b-vision</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>2</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>4</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3624,21 +4416,45 @@
           <t>llama3.2-90b-vision</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>3</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>llama-3.2-11b-vision</t>
+          <t>llama3.2-11b-vision</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3646,16 +4462,40 @@
           <t>gemini-1.5-flash-latest</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3668,16 +4508,40 @@
           <t>gemini-1.5-pro-latest</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>6</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3690,16 +4554,40 @@
           <t>gemini-1.5-flash-latest</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>killer word selected</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>4</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3712,16 +4600,40 @@
           <t>gemini-1.5-pro-latest</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>cards finished</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>5</v>
+      </c>
+      <c r="J91" t="n">
+        <v>4</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/experiment_data/model_tournament/model_tournament_mich1.xlsx
+++ b/experiment_data/model_tournament/model_tournament_mich1.xlsx
@@ -1794,40 +1794,16 @@
           <t>gpt-4o</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>RED</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>cards finished</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>4</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1886,40 +1862,16 @@
           <t>gpt-3.5-turbo</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>RED</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>2</v>
-      </c>
-      <c r="E32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>cards finished</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2208,40 +2160,16 @@
           <t>gpt-3.5-turbo</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>RED</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>cards finished</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>4</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2530,40 +2458,16 @@
           <t>gpt-3.5-turbo</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>RED</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>7</v>
-      </c>
-      <c r="E46" t="n">
-        <v>4</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2852,40 +2756,16 @@
           <t>gpt-3.5-turbo</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>RED</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3128,40 +3008,16 @@
           <t>gemini-1.5-pro-latest</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>RED</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>2</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>cards finished</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>6</v>
-      </c>
-      <c r="J59" t="n">
-        <v>5</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3174,40 +3030,16 @@
           <t>gemini-1.5-flash-latest</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="E60" t="n">
-        <v>2</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3220,40 +3052,16 @@
           <t>gemini-1.5-pro-latest</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>2</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>cards finished</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>4</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3266,40 +3074,16 @@
           <t>gemini-1.5-flash-latest</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>RED</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="E62" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>3</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3312,40 +3096,16 @@
           <t>gemini-1.5-pro-latest</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>3</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3358,40 +3118,16 @@
           <t>gemini-1.5-flash-latest</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>cards finished</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>6</v>
-      </c>
-      <c r="J64" t="n">
-        <v>6</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3404,40 +3140,16 @@
           <t>gemini-1.5-pro-latest</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>4</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3450,40 +3162,16 @@
           <t>gemini-1.5-flash-latest</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="E66" t="n">
-        <v>2</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>cards finished</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>3</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3496,40 +3184,16 @@
           <t>gemini-1.5-pro-latest</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>2</v>
-      </c>
-      <c r="E67" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>3</v>
-      </c>
-      <c r="J67" t="n">
-        <v>2</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3542,40 +3206,16 @@
           <t>gemini-1.5-flash-latest</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>cards finished</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>6</v>
-      </c>
-      <c r="J68" t="n">
-        <v>6</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3588,40 +3228,16 @@
           <t>gemini-1.5-pro-latest</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>RED</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>3</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>3</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3634,40 +3250,16 @@
           <t>gpt-4o</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>cards finished</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>4</v>
-      </c>
-      <c r="J70" t="n">
-        <v>4</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3680,40 +3272,16 @@
           <t>gpt-4o-mini</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>RED</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>2</v>
-      </c>
-      <c r="E71" t="n">
-        <v>2</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3726,40 +3294,16 @@
           <t>gpt-3.5-turbo</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>2</v>
-      </c>
-      <c r="E72" t="n">
-        <v>3</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>2</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3772,40 +3316,16 @@
           <t>grok-beta</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>RED</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>cards finished</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>6</v>
-      </c>
-      <c r="J73" t="n">
-        <v>5</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3818,40 +3338,16 @@
           <t>claude-3-5-sonnet-latest</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E74" t="n">
-        <v>2</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>cards finished</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>5</v>
-      </c>
-      <c r="J74" t="n">
-        <v>5</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3864,40 +3360,16 @@
           <t>claude-3-5-haiku-latest</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>2</v>
-      </c>
-      <c r="E75" t="n">
-        <v>3</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>3</v>
-      </c>
-      <c r="J75" t="n">
-        <v>2</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3910,40 +3382,16 @@
           <t>gemini-1.5-pro-latest</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="E76" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="F76" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>4</v>
-      </c>
-      <c r="J76" t="n">
-        <v>3</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3956,40 +3404,16 @@
           <t>llama3.2-11b-vision</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>RED</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="E77" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>4</v>
-      </c>
-      <c r="J77" t="n">
-        <v>4</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5</v>
-      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4002,40 +3426,16 @@
           <t>llama3.2-90b-vision</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>RED</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>2</v>
-      </c>
-      <c r="E78" t="n">
-        <v>3</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4048,40 +3448,16 @@
           <t>gpt-4o</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>cards finished</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>5</v>
-      </c>
-      <c r="J79" t="n">
-        <v>5</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4094,40 +3470,16 @@
           <t>gpt-4o-mini</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>3</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4140,40 +3492,16 @@
           <t>gpt-3.5-turbo</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>RED</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>1.428571428571429</v>
-      </c>
-      <c r="E81" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>cards finished</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>7</v>
-      </c>
-      <c r="J81" t="n">
-        <v>6</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4186,40 +3514,16 @@
           <t>grok-beta</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>cards finished</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>5</v>
-      </c>
-      <c r="J82" t="n">
-        <v>5</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4232,40 +3536,16 @@
           <t>claude-3-5-sonnet-latest</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>cards finished</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>4</v>
-      </c>
-      <c r="J83" t="n">
-        <v>4</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4278,40 +3558,16 @@
           <t>claude-3-5-haiku-latest</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E84" t="n">
-        <v>3</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>4</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4324,40 +3580,16 @@
           <t>gemini-1.5-flash-latest</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>2.166666666666667</v>
-      </c>
-      <c r="E85" t="n">
-        <v>2</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>cards finished</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>6</v>
-      </c>
-      <c r="J85" t="n">
-        <v>6</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4370,40 +3602,16 @@
           <t>llama3.2-11b-vision</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>2</v>
-      </c>
-      <c r="E86" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>4</v>
-      </c>
-      <c r="J86" t="n">
-        <v>3</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0</v>
-      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4416,45 +3624,21 @@
           <t>llama3.2-90b-vision</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="E87" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>3</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0</v>
-      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>llama3.2-11b-vision</t>
+          <t>llama-3.2-11b-vision</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4462,40 +3646,16 @@
           <t>gemini-1.5-flash-latest</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>5</v>
-      </c>
-      <c r="E88" t="n">
-        <v>2</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0</v>
-      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4508,40 +3668,16 @@
           <t>gemini-1.5-pro-latest</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>2</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>7</v>
-      </c>
-      <c r="J89" t="n">
-        <v>6</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0</v>
-      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4554,40 +3690,16 @@
           <t>gemini-1.5-flash-latest</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E90" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>killer word selected</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>4</v>
-      </c>
-      <c r="J90" t="n">
-        <v>3</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0</v>
-      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4600,40 +3712,16 @@
           <t>gemini-1.5-pro-latest</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>RED</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E91" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>cards finished</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>5</v>
-      </c>
-      <c r="J91" t="n">
-        <v>4</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0</v>
-      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
